--- a/3.Understand/7.模型比较.xlsx
+++ b/3.Understand/7.模型比较.xlsx
@@ -4,19 +4,140 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Network</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>Recurrent Neural Network</t>
+  </si>
+  <si>
+    <t>Proponents</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>VGG</t>
+  </si>
+  <si>
+    <t>Vision Transformer</t>
+  </si>
+  <si>
+    <t>Long Short-Term Memory</t>
+  </si>
+  <si>
+    <t>Vanilla RNN</t>
+  </si>
+  <si>
+    <t>Mechanism</t>
+  </si>
+  <si>
+    <t>convolutional layers to
+progressively extract higher-level abstraction features.</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>uses memory to analyse sequential data</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>very good</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>1.Can process any length of input；2.Work reasonably well 
+for long sequences</t>
+  </si>
+  <si>
+    <t>leverage information</t>
+  </si>
+  <si>
+    <t>Computation for step t can in theory use information from many 
+steps back</t>
+  </si>
+  <si>
+    <t>Model size</t>
+  </si>
+  <si>
+    <t>Model size does not increase for longer input</t>
+  </si>
+  <si>
+    <t>weights</t>
+  </si>
+  <si>
+    <t>Same weights applied for every timestep</t>
+  </si>
+  <si>
+    <t>Contra</t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t>not leverage on global attention</t>
+  </si>
+  <si>
+    <t>not suitable for
+image classification application</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Recurrent computation is slow</t>
+  </si>
+  <si>
+    <t>In practice, difficult to leverage information from many steps back</t>
+  </si>
+  <si>
+    <t>computation sequence</t>
+  </si>
+  <si>
+    <t>Sequential computation</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -370,12 +491,64 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,7 +675,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,34 +687,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,9 +799,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -941,14 +1135,198 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="14.8363636363636" customWidth="1"/>
+    <col min="2" max="2" width="14.1181818181818" customWidth="1"/>
+    <col min="3" max="3" width="31.9545454545455" customWidth="1"/>
+    <col min="4" max="4" width="20.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="40.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="2:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="42" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="42" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="42" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:1">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:1">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:1">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="28" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:1">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:1">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:1">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:1">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:1">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -964,7 +1342,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -981,7 +1359,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
